--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angee/EclipseProjects/XOME/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E042A682-8B22-4E44-A334-3FE8BECF5D54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6633AD-58E1-394B-B985-0CA3D3FAA909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9180" windowWidth="27980" windowHeight="7320" firstSheet="17" activeTab="22" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="1480" yWindow="11080" windowWidth="27980" windowHeight="7320" activeTab="3" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="signUpWithBlankFields" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>gmailpwd</t>
   </si>
   <si>
-    <t>automation123</t>
-  </si>
-  <si>
     <t>gmailsearch</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Tustin, CA</t>
+  </si>
+  <si>
+    <t>Pip3Pytest$</t>
   </si>
 </sst>
 </file>
@@ -594,12 +594,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -622,12 +622,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -648,12 +648,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -678,18 +678,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>800000</v>
@@ -719,15 +719,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -754,15 +754,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -788,12 +788,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -816,12 +816,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +844,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -873,18 +873,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>750</v>
@@ -970,18 +970,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -1011,18 +1011,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1046,12 +1046,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6C2A1-E82B-F64C-8243-FB3552EC8982}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1071,12 +1071,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1099,12 +1099,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B933AF35-72A3-734A-8E78-C2633229F57E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1176,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1197,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F026C4D2-A9FC-AA49-B70A-F794137C2C93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A5F3B3-C979-2445-AA7E-AAD386065622}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1255,45 +1293,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F026C4D2-A9FC-AA49-B70A-F794137C2C93}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A5F3B3-C979-2445-AA7E-AAD386065622}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,13 +1321,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1364,12 +1364,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1392,12 +1392,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angee/EclipseProjects/XOME/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6633AD-58E1-394B-B985-0CA3D3FAA909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4537507F-DCD0-574F-ACC2-2DF6F72EFF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="11080" windowWidth="27980" windowHeight="7320" activeTab="3" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="7760" yWindow="9900" windowWidth="27980" windowHeight="7320" activeTab="3" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="signUpWithBlankFields" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="filterBySingleFamily" sheetId="24" r:id="rId23"/>
     <sheet name="filterByCondo" sheetId="25" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>firstname</t>
   </si>
@@ -86,12 +86,6 @@
     <t>not8characters</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Fowler</t>
-  </si>
-  <si>
     <t>gmailpwd</t>
   </si>
   <si>
@@ -110,21 +104,12 @@
     <t>Automation123#a</t>
   </si>
   <si>
-    <t>sqatester2018+1@gmail.com</t>
-  </si>
-  <si>
-    <t>sqatester2018+2@gmail.com</t>
-  </si>
-  <si>
     <t>searchkeyword</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>12512 Brighton Place Tustin, CA 92780</t>
-  </si>
-  <si>
     <t>price1</t>
   </si>
   <si>
@@ -158,16 +143,25 @@
     <t>maxyear</t>
   </si>
   <si>
-    <t>hardwood floor</t>
-  </si>
-  <si>
     <t>Malibu, CA</t>
   </si>
   <si>
-    <t>Tustin, CA</t>
-  </si>
-  <si>
     <t>Pip3Pytest$</t>
+  </si>
+  <si>
+    <t>master bedroom</t>
+  </si>
+  <si>
+    <t>Mission Viejo, CA</t>
+  </si>
+  <si>
+    <t>12512 Brighton Pl Tustin, CA 92780</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>TESTER</t>
   </si>
 </sst>
 </file>
@@ -537,7 +531,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,12 +588,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -622,12 +616,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -648,12 +642,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -678,18 +672,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>800000</v>
@@ -719,15 +713,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -754,15 +748,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -788,12 +782,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -816,12 +810,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +838,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -873,18 +867,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>750</v>
@@ -903,7 +897,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,18 +964,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -1000,7 +994,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,18 +1005,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1046,12 +1040,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1064,19 +1058,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1083,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,12 +1093,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1161,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,18 +1188,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1214,10 +1208,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1227,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,24 +1238,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F026C4D2-A9FC-AA49-B70A-F794137C2C93}"/>
-  </hyperlinks>
+      <c r="A2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1282,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1290,10 +1276,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1321,13 +1307,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1340,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,12 +1350,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1392,12 +1378,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angee/EclipseProjects/XOME/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4537507F-DCD0-574F-ACC2-2DF6F72EFF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DF1CB-C3CC-6044-A728-221748CD6BD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="9900" windowWidth="27980" windowHeight="7320" activeTab="3" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="820" yWindow="9880" windowWidth="27980" windowHeight="7320" activeTab="3" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="signUpWithBlankFields" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>Malibu, CA</t>
   </si>
   <si>
-    <t>Pip3Pytest$</t>
-  </si>
-  <si>
     <t>master bedroom</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>TESTER</t>
+  </si>
+  <si>
+    <t>wontshare</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
